--- a/src/main/resources/kegelmeisterschaft/service/importer/2015/player/Los Brennos.xlsx
+++ b/src/main/resources/kegelmeisterschaft/service/importer/2015/player/Los Brennos.xlsx
@@ -24,12 +24,93 @@
   <si>
     <t>singleRelevant</t>
   </si>
+  <si>
+    <t>Manuel</t>
+  </si>
+  <si>
+    <t>Klute</t>
+  </si>
+  <si>
+    <t>MALE</t>
+  </si>
+  <si>
+    <t>Sebastian</t>
+  </si>
+  <si>
+    <t>Hunecke</t>
+  </si>
+  <si>
+    <t>MALE</t>
+  </si>
+  <si>
+    <t>Denis</t>
+  </si>
+  <si>
+    <t>Lage</t>
+  </si>
+  <si>
+    <t>MALE</t>
+  </si>
+  <si>
+    <t>Stefan</t>
+  </si>
+  <si>
+    <t>Becker</t>
+  </si>
+  <si>
+    <t>MALE</t>
+  </si>
+  <si>
+    <t>Chris</t>
+  </si>
+  <si>
+    <t>Kalinowski</t>
+  </si>
+  <si>
+    <t>MALE</t>
+  </si>
+  <si>
+    <t>Sebastian</t>
+  </si>
+  <si>
+    <t>Grossert</t>
+  </si>
+  <si>
+    <t>MALE</t>
+  </si>
+  <si>
+    <t>Alexander</t>
+  </si>
+  <si>
+    <t>Müller</t>
+  </si>
+  <si>
+    <t>MALE</t>
+  </si>
+  <si>
+    <t>Haris</t>
+  </si>
+  <si>
+    <t>Babic</t>
+  </si>
+  <si>
+    <t>MALE</t>
+  </si>
+  <si>
+    <t>Samy</t>
+  </si>
+  <si>
+    <t>Slouma</t>
+  </si>
+  <si>
+    <t>MALE</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="2">
+  <fonts count="3">
     <font>
       <sz val="10.0"/>
       <name val="Arial"/>
@@ -37,6 +118,7 @@
     <font>
       <sz val="10.0"/>
     </font>
+    <font/>
   </fonts>
   <fills count="2">
     <fill>
@@ -64,9 +146,12 @@
   <cellStyleXfs count="1">
     <xf fillId="0" numFmtId="0" borderId="0" fontId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf fillId="0" numFmtId="0" borderId="0" fontId="0"/>
     <xf applyAlignment="1" fillId="0" xfId="0" numFmtId="0" borderId="1" applyFont="1" fontId="1">
+      <alignment/>
+    </xf>
+    <xf applyAlignment="1" fillId="0" xfId="0" numFmtId="0" borderId="1" applyFont="1" fontId="2">
       <alignment/>
     </xf>
   </cellXfs>
@@ -103,6 +188,132 @@
         <v>3</v>
       </c>
     </row>
+    <row r="2">
+      <c t="s" s="2" r="A2">
+        <v>4</v>
+      </c>
+      <c t="s" s="2" r="B2">
+        <v>5</v>
+      </c>
+      <c t="s" s="2" r="C2">
+        <v>6</v>
+      </c>
+      <c t="b" s="2" r="D2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3">
+      <c t="s" s="2" r="A3">
+        <v>7</v>
+      </c>
+      <c t="s" s="2" r="B3">
+        <v>8</v>
+      </c>
+      <c t="s" s="2" r="C3">
+        <v>9</v>
+      </c>
+      <c t="b" s="2" r="D3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4">
+      <c t="s" s="2" r="A4">
+        <v>10</v>
+      </c>
+      <c t="s" s="2" r="B4">
+        <v>11</v>
+      </c>
+      <c t="s" s="2" r="C4">
+        <v>12</v>
+      </c>
+      <c t="b" s="2" r="D4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5">
+      <c t="s" s="2" r="A5">
+        <v>13</v>
+      </c>
+      <c t="s" s="2" r="B5">
+        <v>14</v>
+      </c>
+      <c t="s" s="2" r="C5">
+        <v>15</v>
+      </c>
+      <c t="b" s="2" r="D5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6">
+      <c t="s" s="2" r="A6">
+        <v>16</v>
+      </c>
+      <c t="s" s="2" r="B6">
+        <v>17</v>
+      </c>
+      <c t="s" s="2" r="C6">
+        <v>18</v>
+      </c>
+      <c t="b" s="2" r="D6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7">
+      <c t="s" s="2" r="A7">
+        <v>19</v>
+      </c>
+      <c t="s" s="2" r="B7">
+        <v>20</v>
+      </c>
+      <c t="s" s="2" r="C7">
+        <v>21</v>
+      </c>
+      <c t="b" s="2" r="D7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8">
+      <c t="s" s="2" r="A8">
+        <v>22</v>
+      </c>
+      <c t="s" s="2" r="B8">
+        <v>23</v>
+      </c>
+      <c t="s" s="2" r="C8">
+        <v>24</v>
+      </c>
+      <c t="b" s="2" r="D8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9">
+      <c t="s" s="2" r="A9">
+        <v>25</v>
+      </c>
+      <c t="s" s="2" r="B9">
+        <v>26</v>
+      </c>
+      <c t="s" s="2" r="C9">
+        <v>27</v>
+      </c>
+      <c t="b" s="2" r="D9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10">
+      <c t="s" s="2" r="A10">
+        <v>28</v>
+      </c>
+      <c t="s" s="2" r="B10">
+        <v>29</v>
+      </c>
+      <c t="s" s="2" r="C10">
+        <v>30</v>
+      </c>
+      <c t="b" s="2" r="D10">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <drawing r:id="rId1"/>
 </worksheet>

--- a/src/main/resources/kegelmeisterschaft/service/importer/2015/player/Los Brennos.xlsx
+++ b/src/main/resources/kegelmeisterschaft/service/importer/2015/player/Los Brennos.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="22">
   <si>
     <t>firstName</t>
   </si>
@@ -40,70 +40,43 @@
     <t>Hunecke</t>
   </si>
   <si>
-    <t>MALE</t>
-  </si>
-  <si>
     <t>Denis</t>
   </si>
   <si>
     <t>Lage</t>
   </si>
   <si>
-    <t>MALE</t>
-  </si>
-  <si>
     <t>Stefan</t>
   </si>
   <si>
     <t>Becker</t>
   </si>
   <si>
-    <t>MALE</t>
-  </si>
-  <si>
     <t>Chris</t>
   </si>
   <si>
     <t>Kalinowski</t>
   </si>
   <si>
-    <t>MALE</t>
-  </si>
-  <si>
-    <t>Sebastian</t>
-  </si>
-  <si>
     <t>Grossert</t>
   </si>
   <si>
-    <t>MALE</t>
-  </si>
-  <si>
     <t>Alexander</t>
   </si>
   <si>
     <t>Müller</t>
   </si>
   <si>
-    <t>MALE</t>
-  </si>
-  <si>
     <t>Haris</t>
   </si>
   <si>
     <t>Babic</t>
   </si>
   <si>
-    <t>MALE</t>
-  </si>
-  <si>
     <t>Samy</t>
   </si>
   <si>
     <t>Slouma</t>
-  </si>
-  <si>
-    <t>MALE</t>
   </si>
 </sst>
 </file>
@@ -210,7 +183,7 @@
         <v>8</v>
       </c>
       <c t="s" s="2" r="C3">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c t="b" s="2" r="D3">
         <v>1</v>
@@ -218,13 +191,13 @@
     </row>
     <row r="4">
       <c t="s" s="2" r="A4">
+        <v>9</v>
+      </c>
+      <c t="s" s="2" r="B4">
         <v>10</v>
       </c>
-      <c t="s" s="2" r="B4">
-        <v>11</v>
-      </c>
       <c t="s" s="2" r="C4">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c t="b" s="2" r="D4">
         <v>1</v>
@@ -232,13 +205,13 @@
     </row>
     <row r="5">
       <c t="s" s="2" r="A5">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c t="s" s="2" r="B5">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c t="s" s="2" r="C5">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c t="b" s="2" r="D5">
         <v>1</v>
@@ -246,13 +219,13 @@
     </row>
     <row r="6">
       <c t="s" s="2" r="A6">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c t="s" s="2" r="B6">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c t="s" s="2" r="C6">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c t="b" s="2" r="D6">
         <v>1</v>
@@ -260,13 +233,13 @@
     </row>
     <row r="7">
       <c t="s" s="2" r="A7">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c t="s" s="2" r="B7">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c t="s" s="2" r="C7">
-        <v>21</v>
+        <v>6</v>
       </c>
       <c t="b" s="2" r="D7">
         <v>1</v>
@@ -274,13 +247,13 @@
     </row>
     <row r="8">
       <c t="s" s="2" r="A8">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c t="s" s="2" r="B8">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c t="s" s="2" r="C8">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c t="b" s="2" r="D8">
         <v>1</v>
@@ -288,13 +261,13 @@
     </row>
     <row r="9">
       <c t="s" s="2" r="A9">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c t="s" s="2" r="B9">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c t="s" s="2" r="C9">
-        <v>27</v>
+        <v>6</v>
       </c>
       <c t="b" s="2" r="D9">
         <v>1</v>
@@ -302,13 +275,13 @@
     </row>
     <row r="10">
       <c t="s" s="2" r="A10">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c t="s" s="2" r="B10">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c t="s" s="2" r="C10">
-        <v>30</v>
+        <v>6</v>
       </c>
       <c t="b" s="2" r="D10">
         <v>1</v>
